--- a/SAP_LOGON_DATA.xlsx
+++ b/SAP_LOGON_DATA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JMCG\Desktop\RPA\Sumei_FI004\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JMCG\Documents\GitHub\Sumei_FI004\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE4CF27-3274-4122-9706-561A4AD7666A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF14FCA-0861-4AB5-AAFA-54C2182DFF81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9D3DB022-F9F0-4A76-8104-A781D0DCFD7F}"/>
   </bookViews>
@@ -489,7 +489,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="D3">
         <v>500</v>

--- a/SAP_LOGON_DATA.xlsx
+++ b/SAP_LOGON_DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JMCG\Documents\GitHub\Sumei_FI004\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF14FCA-0861-4AB5-AAFA-54C2182DFF81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCAE2FD4-4A27-4F48-8592-ED869F18F5F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9D3DB022-F9F0-4A76-8104-A781D0DCFD7F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>client</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -486,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7A7853-C5F8-4751-808F-84AB5A2B0E6D}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -498,12 +498,12 @@
     <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -516,13 +516,16 @@
       <c r="H2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>210</v>
+        <v>110</v>
       </c>
       <c r="D3">
         <v>500</v>
@@ -530,8 +533,11 @@
       <c r="H3">
         <v>110</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -544,8 +550,11 @@
       <c r="H4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -553,7 +562,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
